--- a/config/simple.xlsx
+++ b/config/simple.xlsx
@@ -88,7 +88,7 @@
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="true"/>
         <c:ser>
           <c:idx val="0"/>
@@ -141,24 +141,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="General">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:shape val="box"/>
         </c:ser>
-        <c:axId val="8161692"/>
-        <c:axId val="15977523"/>
+        <c:axId val="4838388"/>
+        <c:axId val="4879668"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="8161692"/>
+        <c:axId val="4838388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -179,7 +179,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15977523"/>
+        <c:crossAx val="4879668"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -188,7 +188,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15977523"/>
+        <c:axId val="4879668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,7 +209,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8161692"/>
+        <c:crossAx val="4838388"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -295,7 +295,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -305,7 +305,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -315,7 +315,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
